--- a/addresses_found.xlsx
+++ b/addresses_found.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,18 +454,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rue Jean Lecanuet,  Vieux-Marché-Cathédrale</t>
+          <t>Hangar 107,  107</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49.443512</v>
+        <v>49.44105625</v>
       </c>
       <c r="D2" t="n">
-        <v>1.098445</v>
+        <v>1.072836054933497</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.443512,1.098445</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44105625,1.0728360549334974</t>
         </is>
       </c>
     </row>
@@ -475,18 +475,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABC Bookshop,  11</t>
+          <t>Rue Ambroise Fleury,  Quartier Saint-Marc / Croix de Pierre / Saint-Nicaise</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49.44189769515475</v>
+        <v>49.4379835</v>
       </c>
       <c r="D3" t="n">
-        <v>1.100301287309256</v>
+        <v>1.1026282</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44189769515475,1.100301287309256</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4379835,1.1026282</t>
         </is>
       </c>
     </row>
@@ -496,18 +496,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rue Pajot,  Mont-Saint-Aignan</t>
+          <t>Rue Antoine de Saint-Exupéry,  Parc de la Bresle</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49.45600450098696</v>
+        <v>49.46269885</v>
       </c>
       <c r="D4" t="n">
-        <v>1.091440421284605</v>
+        <v>1.073441601313796</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.456004500986964,1.0914404212846047</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.462698849999995,1.0734416013137955</t>
         </is>
       </c>
     </row>
@@ -517,18 +517,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rue Saint-Maur,  Quartier Gare / Jouvenet</t>
+          <t>Rue de la Vatine,  La Vatine</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.44684598321225</v>
+        <v>49.47003005995345</v>
       </c>
       <c r="D5" t="n">
-        <v>1.089829776723728</v>
+        <v>1.097510903008701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44684598321225,1.0898297767237282</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47003005995345,1.0975109030087011</t>
         </is>
       </c>
     </row>
@@ -538,18 +538,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>École Savoye - salle 2,  Impasse de la Tour d'Argent</t>
+          <t>Rue Verte,  Quartier Gare / Jouvenet</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.44438942643312</v>
+        <v>49.4498461</v>
       </c>
       <c r="D6" t="n">
-        <v>1.086366378972441</v>
+        <v>1.093304711245519</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44438942643312,1.0863663789724407</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4498461,1.0933047112455192</t>
         </is>
       </c>
     </row>
@@ -559,18 +559,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Graphopédagogie 76,  33</t>
+          <t>Rue Carnot,  Bihorel</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.44248587655505</v>
+        <v>49.45555784972355</v>
       </c>
       <c r="D7" t="n">
-        <v>1.088578979221674</v>
+        <v>1.115504930758006</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.442485876555054,1.0885789792216745</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.455557849723554,1.1155049307580065</t>
         </is>
       </c>
     </row>
@@ -580,18 +580,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Impasse Prévost,  Le Mont Fortin</t>
+          <t>Rue Coquerel,  Mont-Saint-Aignan</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49.45962752601397</v>
+        <v>49.4543744251689</v>
       </c>
       <c r="D8" t="n">
-        <v>1.094698308548839</v>
+        <v>1.085397179695553</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45962752601397,1.0946983085488387</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4543744251689,1.0853971796955535</t>
         </is>
       </c>
     </row>
@@ -601,18 +601,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rue des Murets,  Les Coquets</t>
+          <t>Rue Delarue Leroy,  Le Mont Fortin</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.46700907433233</v>
+        <v>49.46246069883718</v>
       </c>
       <c r="D9" t="n">
-        <v>1.082936386962475</v>
+        <v>1.104309739277101</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46700907433233,1.0829363869624746</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.462460698837184,1.1043097392771009</t>
         </is>
       </c>
     </row>
@@ -622,18 +622,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SNCF Direction régionale de Rouen,  19</t>
+          <t>Rue François Mitterrand,  Flaubert</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.44847916187504</v>
+        <v>49.4265371</v>
       </c>
       <c r="D10" t="n">
-        <v>1.097772469211009</v>
+        <v>1.0633673</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44847916187504,1.097772469211009</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4265371,1.0633673</t>
         </is>
       </c>
     </row>
@@ -643,18 +643,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>La Vatine,  Rue François Perroux</t>
+          <t>Rue Le Verrier,  Parc de l'Epte</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.46978371408002</v>
+        <v>49.47007525</v>
       </c>
       <c r="D11" t="n">
-        <v>1.094786107942888</v>
+        <v>1.073631797350675</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.469783714080016,1.094786107942888</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47007525,1.0736317973506746</t>
         </is>
       </c>
     </row>
@@ -664,18 +664,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>La Vatine,  Rue François Perroux</t>
+          <t>Pont Flaubert,  Presqu'Île Rollet</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>49.46978371408002</v>
+        <v>49.44133069999999</v>
       </c>
       <c r="D12" t="n">
-        <v>1.094786107942888</v>
+        <v>1.065146643849046</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.469783714080016,1.094786107942888</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.441330699999995,1.0651466438490456</t>
         </is>
       </c>
     </row>
@@ -685,18 +685,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rue Saint-Maur,  Quartier Gare / Jouvenet</t>
+          <t>Rue du Docteur Caron,  Bihorel</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.4513093876763</v>
+        <v>49.46006277822872</v>
       </c>
       <c r="D13" t="n">
-        <v>1.087890252060531</v>
+        <v>1.11188552354585</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.451309387676304,1.0878902520605311</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.460062778228725,1.11188552354585</t>
         </is>
       </c>
     </row>
@@ -706,18 +706,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>195,  Rue Beauvoisine</t>
+          <t>Rue Robert Lehmann,  Parc de Cerisy</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49.44785919525407</v>
+        <v>49.46942484177057</v>
       </c>
       <c r="D14" t="n">
-        <v>1.099330025473969</v>
+        <v>1.078109619670695</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44785919525407,1.099330025473969</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46942484177057,1.0781096196706945</t>
         </is>
       </c>
     </row>
@@ -727,18 +727,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Route de Neufchâtel,  Jouvenet</t>
+          <t>Rampe du Brillant Point de Vue,  Le Mont Fortin</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49.45300099234263</v>
+        <v>49.45264078329139</v>
       </c>
       <c r="D15" t="n">
-        <v>1.098714688230908</v>
+        <v>1.100410981769812</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45300099234263,1.0987146882309085</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45264078329139,1.1004109817698116</t>
         </is>
       </c>
     </row>
@@ -748,18 +748,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rue Louis Pasteur,  Le Mont Fortin</t>
+          <t>Flaubert,  Le Petit-Quevilly</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>49.45534280940304</v>
+        <v>49.43701457127947</v>
       </c>
       <c r="D16" t="n">
-        <v>1.100498264661687</v>
+        <v>1.068236032743768</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45534280940304,1.1004982646616865</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43701457127947,1.0682360327437683</t>
         </is>
       </c>
     </row>
@@ -769,18 +769,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rue des Emmurées,  Saint-Sever</t>
+          <t>Allée du Coteau,  Déville-lès-Rouen</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>49.43237987175618</v>
+        <v>49.46249961696202</v>
       </c>
       <c r="D17" t="n">
-        <v>1.087206154595982</v>
+        <v>1.059169152649343</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.432379871756176,1.0872061545959824</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46249961696202,1.0591691526493432</t>
         </is>
       </c>
     </row>
@@ -790,18 +790,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Office national des forêts,  53 bis</t>
+          <t>Intermarché Super,  64</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49.45057985897937</v>
+        <v>49.44022715</v>
       </c>
       <c r="D18" t="n">
-        <v>1.090389787205976</v>
+        <v>1.148263230757958</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.450579858979374,1.0903897872059758</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44022715,1.1482632307579579</t>
         </is>
       </c>
     </row>
@@ -811,18 +811,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Restaurant Jean Descieux,  1</t>
+          <t>Rue de l'Avenir,  Mont-Saint-Aignan</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>49.43363119601337</v>
+        <v>49.4583074</v>
       </c>
       <c r="D19" t="n">
-        <v>1.092871630085201</v>
+        <v>1.0936924</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.433631196013366,1.0928716300852008</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4583074,1.0936924</t>
         </is>
       </c>
     </row>
@@ -832,18 +832,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rue Vigné,  Les Coquets</t>
+          <t>Rue du Commandant Dubois,  L'Église</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49.45740774616981</v>
+        <v>49.47006606073975</v>
       </c>
       <c r="D20" t="n">
-        <v>1.093602300877378</v>
+        <v>1.110514608485934</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45740774616981,1.093602300877378</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.470066060739754,1.1105146084859339</t>
         </is>
       </c>
     </row>
@@ -853,18 +853,228 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Avenue du Mont aux Malades,  Parc de La Londe</t>
+          <t>Rue des Canadiens,  Château de Waddington</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>49.46216745858169</v>
+        <v>49.43246902549397</v>
       </c>
       <c r="D21" t="n">
-        <v>1.078391337335869</v>
+        <v>1.14724128255841</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46216745858169,1.078391337335869</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.432469025493965,1.14724128255841</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rue Louis Antier,  Sotteville-lès-Rouen</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>49.41396867468393</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.077376030792611</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.41396867468393,1.077376030792611</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Square de Mortemer,  La Prévotière</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>49.46188525919403</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.12112692682898</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46188525919403,1.1211269268289803</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Avenue du Grand Cours,  La Sablière</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>49.4260239</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.102107434450814</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.426023900000004,1.1021074344508142</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Skatepark of Rouen,  1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>49.4385077</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.072168991886268</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4385077,1.0721689918862676</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>École élémentaire Louis-Ezechiel Pouchet,  Rue Général Giraud</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>49.440661</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.0876505</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.440661,1.0876505</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ambulances Auvray,  3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>49.4288915</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.0693691</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4288915,1.0693691</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1,  Rue du Renard</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>49.4461271</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.0858071</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4461271,1.0858071</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Quai Bas Jacques Anquetil,  La Sablière</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>49.43233756771774</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.097535168718729</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43233756771774,1.0975351687187287</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Rue Louis Malliot,  Jouvenet</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>49.45037807607455</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.097291600559886</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45037807607455,1.0972916005598858</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Quai Lescure,  Amfreville-la-Mi-Voie</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>49.4141241512298</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.118656421283006</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4141241512298,1.1186564212830057</t>
         </is>
       </c>
     </row>

--- a/addresses_found.xlsx
+++ b/addresses_found.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,631 +450,442 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hangar 107,  107</t>
+          <t>1 Rue du Clos Tellier</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49.44105625</v>
+        <v>49.377805</v>
       </c>
       <c r="D2" t="n">
-        <v>1.072836054933497</v>
+        <v>1.115311</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44105625,1.0728360549334974</t>
+          <t>https://www.google.com/maps/place/1+Rue+du+Clos+Tellier</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rue Ambroise Fleury,  Quartier Saint-Marc / Croix de Pierre / Saint-Nicaise</t>
+          <t>Rue Alfred Duthil,  La Girafe</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49.4379835</v>
+        <v>49.44899691233225</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1026282</v>
+        <v>1.152946525663122</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4379835,1.1026282</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44899691233225,1.1529465256631215</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rue Antoine de Saint-Exupéry,  Parc de la Bresle</t>
+          <t>Rue du Four Banal,  Déville-lès-Rouen</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49.46269885</v>
+        <v>49.46194366399145</v>
       </c>
       <c r="D4" t="n">
-        <v>1.073441601313796</v>
+        <v>1.051755879188496</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.462698849999995,1.0734416013137955</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46194366399145,1.0517558791884958</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rue de la Vatine,  La Vatine</t>
+          <t>Centre hospitalier du Rouvray,  4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.47003005995345</v>
+        <v>49.39848725</v>
       </c>
       <c r="D5" t="n">
-        <v>1.097510903008701</v>
+        <v>1.09497675154378</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47003005995345,1.0975109030087011</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.39848725,1.09497675154378</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rue Verte,  Quartier Gare / Jouvenet</t>
+          <t>Avenue du Grand Cours,  La Sablière</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.4498461</v>
+        <v>49.4260239</v>
       </c>
       <c r="D6" t="n">
-        <v>1.093304711245519</v>
+        <v>1.102107434450814</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4498461,1.0933047112455192</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.426023900000004,1.1021074344508142</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rue Carnot,  Bihorel</t>
+          <t>Boulevard Maurice de Broglie,  Parc de la Bresle</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.45555784972355</v>
+        <v>49.46046790356267</v>
       </c>
       <c r="D7" t="n">
-        <v>1.115504930758006</v>
+        <v>1.073605849279293</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.455557849723554,1.1155049307580065</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46046790356267,1.073605849279293</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rue Coquerel,  Mont-Saint-Aignan</t>
+          <t>Foire Saint-Romain,  Presqu'Île Rollet</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49.4543744251689</v>
+        <v>49.44684465</v>
       </c>
       <c r="D8" t="n">
-        <v>1.085397179695553</v>
+        <v>1.054295428337912</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4543744251689,1.0853971796955535</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44684465,1.0542954283379116</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rue Delarue Leroy,  Le Mont Fortin</t>
+          <t>Quai Richard Waddington,  Presqu'Île Rollet</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.46246069883718</v>
+        <v>49.4407633</v>
       </c>
       <c r="D9" t="n">
-        <v>1.104309739277101</v>
+        <v>1.0466735</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.462460698837184,1.1043097392771009</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4407633,1.0466735</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rue François Mitterrand,  Flaubert</t>
+          <t>Rue Michel,  Les Coquets</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.4265371</v>
+        <v>49.45709401172554</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0633673</v>
+        <v>1.091581960520784</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4265371,1.0633673</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.457094011725545,1.0915819605207844</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rue Le Verrier,  Parc de l'Epte</t>
+          <t>Quai de Rouen-Quevilly,  Presqu'Île Rollet</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.47007525</v>
+        <v>49.43784023857489</v>
       </c>
       <c r="D11" t="n">
-        <v>1.073631797350675</v>
+        <v>1.052916873215403</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47007525,1.0736317973506746</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.437840238574886,1.052916873215403</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pont Flaubert,  Presqu'Île Rollet</t>
+          <t>Rue Ernest Lesueur,  Les Coquets</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>49.44133069999999</v>
+        <v>49.45884816717249</v>
       </c>
       <c r="D12" t="n">
-        <v>1.065146643849046</v>
+        <v>1.085739919873663</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.441330699999995,1.0651466438490456</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45884816717249,1.0857399198736635</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rue du Docteur Caron,  Bihorel</t>
+          <t>Chemin de Rouen,  Le Mesnil-Esnard</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.46006277822872</v>
+        <v>49.41840144619702</v>
       </c>
       <c r="D13" t="n">
-        <v>1.11188552354585</v>
+        <v>1.144385058694083</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.460062778228725,1.11188552354585</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.418401446197024,1.1443850586940834</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rue Robert Lehmann,  Parc de Cerisy</t>
+          <t>Rue François Lamy,  Mont-Riboudet</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49.46942484177057</v>
+        <v>49.4484727</v>
       </c>
       <c r="D14" t="n">
-        <v>1.078109619670695</v>
+        <v>1.0746356</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46942484177057,1.0781096196706945</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4484727,1.0746356</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rampe du Brillant Point de Vue,  Le Mont Fortin</t>
+          <t>Hippodrome des Trois Pipes,  Rue de Diane</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49.45264078329139</v>
+        <v>49.45964395</v>
       </c>
       <c r="D15" t="n">
-        <v>1.100410981769812</v>
+        <v>1.118264972943661</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45264078329139,1.1004109817698116</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45964395,1.1182649729436607</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Flaubert,  Le Petit-Quevilly</t>
+          <t>Rue de Verdun,  Les Vikings</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>49.43701457127947</v>
+        <v>49.47553723731352</v>
       </c>
       <c r="D16" t="n">
-        <v>1.068236032743768</v>
+        <v>1.123740339433279</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43701457127947,1.0682360327437683</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.475537237313524,1.123740339433279</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Allée du Coteau,  Déville-lès-Rouen</t>
+          <t>Chemin de la Bretèque,  La Bretèque</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>49.46249961696202</v>
+        <v>49.4895594</v>
       </c>
       <c r="D17" t="n">
-        <v>1.059169152649343</v>
+        <v>1.1035399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46249961696202,1.0591691526493432</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4895594,1.1035399</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Intermarché Super,  64</t>
+          <t>6,  Rue des Canadiens</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49.44022715</v>
+        <v>49.420784</v>
       </c>
       <c r="D18" t="n">
-        <v>1.148263230757958</v>
+        <v>1.128584978738117</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44022715,1.1482632307579579</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.420784,1.1285849787381173</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rue de l'Avenir,  Mont-Saint-Aignan</t>
+          <t>2,  Rue Legouy</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>49.4583074</v>
+        <v>49.4425295</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0936924</v>
+        <v>1.108076</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4583074,1.0936924</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4425295,1.108076</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rue du Commandant Dubois,  L'Église</t>
+          <t>Avenue Bernard Bicheray,  Rouen</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49.47006606073975</v>
+        <v>49.44945537954387</v>
       </c>
       <c r="D20" t="n">
-        <v>1.110514608485934</v>
+        <v>1.049347084850659</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.470066060739754,1.1105146084859339</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44945537954387,1.0493470848506585</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rue des Canadiens,  Château de Waddington</t>
+          <t>Rue Gessard,  Saint-Clément</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>49.43246902549397</v>
+        <v>49.42722088104083</v>
       </c>
       <c r="D21" t="n">
-        <v>1.14724128255841</v>
+        <v>1.071434974292933</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.432469025493965,1.14724128255841</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42722088104083,1.0714349742929332</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rue Louis Antier,  Sotteville-lès-Rouen</t>
+          <t>Rampe Beauvoisine,  Jouvenet</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>49.41396867468393</v>
+        <v>49.44801269803951</v>
       </c>
       <c r="D22" t="n">
-        <v>1.077376030792611</v>
+        <v>1.102314470687749</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.41396867468393,1.077376030792611</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Square de Mortemer,  La Prévotière</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>49.46188525919403</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.12112692682898</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46188525919403,1.1211269268289803</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Avenue du Grand Cours,  La Sablière</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>49.4260239</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.102107434450814</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.426023900000004,1.1021074344508142</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Skatepark of Rouen,  1</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>49.4385077</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.072168991886268</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4385077,1.0721689918862676</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>École élémentaire Louis-Ezechiel Pouchet,  Rue Général Giraud</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>49.440661</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.0876505</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.440661,1.0876505</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Ambulances Auvray,  3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>49.4288915</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.0693691</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4288915,1.0693691</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1,  Rue du Renard</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>49.4461271</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.0858071</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4461271,1.0858071</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Quai Bas Jacques Anquetil,  La Sablière</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>49.43233756771774</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.097535168718729</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43233756771774,1.0975351687187287</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Rue Louis Malliot,  Jouvenet</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>49.45037807607455</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.097291600559886</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45037807607455,1.0972916005598858</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Quai Lescure,  Amfreville-la-Mi-Voie</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>49.4141241512298</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.118656421283006</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4141241512298,1.1186564212830057</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44801269803951,1.102314470687749</t>
         </is>
       </c>
     </row>

--- a/addresses_found.xlsx
+++ b/addresses_found.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,442 +450,421 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1 Rue du Clos Tellier</t>
+          <t>Route de Darnétal,  Bonsecours</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49.377805</v>
+        <v>49.4285697</v>
       </c>
       <c r="D2" t="n">
-        <v>1.115311</v>
+        <v>1.1453215</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/1+Rue+du+Clos+Tellier</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4285697,1.1453215</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rue Alfred Duthil,  La Girafe</t>
+          <t>Quartier du Mont Gargan,  Bonsecours</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49.44899691233225</v>
+        <v>49.42307500911448</v>
       </c>
       <c r="D3" t="n">
-        <v>1.152946525663122</v>
+        <v>1.113333097556789</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44899691233225,1.1529465256631215</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.423075009114484,1.1133330975567892</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rue du Four Banal,  Déville-lès-Rouen</t>
+          <t>Rue Madame de Staël,  Le Châtelet</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49.46194366399145</v>
+        <v>49.4594655</v>
       </c>
       <c r="D4" t="n">
-        <v>1.051755879188496</v>
+        <v>1.1360113</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46194366399145,1.0517558791884958</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4594655,1.1360113</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre hospitalier du Rouvray,  4</t>
+          <t>Rue Bellevue,  Le Mont Fortin</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.39848725</v>
+        <v>49.45743925693177</v>
       </c>
       <c r="D5" t="n">
-        <v>1.09497675154378</v>
+        <v>1.09952913611965</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.39848725,1.09497675154378</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45743925693177,1.0995291361196504</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Avenue du Grand Cours,  La Sablière</t>
+          <t>Quai Richard Waddington,  Presqu'Île Rollet</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.4260239</v>
+        <v>49.44372233586422</v>
       </c>
       <c r="D6" t="n">
-        <v>1.102107434450814</v>
+        <v>1.05654883905663</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.426023900000004,1.1021074344508142</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44372233586422,1.0565488390566298</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Boulevard Maurice de Broglie,  Parc de la Bresle</t>
+          <t>Mosquée El-Fath,  Rue Le Verrier</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.46046790356267</v>
+        <v>49.45449635</v>
       </c>
       <c r="D7" t="n">
-        <v>1.073605849279293</v>
+        <v>1.141399220863771</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46046790356267,1.073605849279293</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45449635,1.1413992208637707</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Foire Saint-Romain,  Presqu'Île Rollet</t>
+          <t>Stade Irène Hermel,  Allée Jacques Willig</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49.44684465</v>
+        <v>49.42395645</v>
       </c>
       <c r="D8" t="n">
-        <v>1.054295428337912</v>
+        <v>1.0987216635178</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44684465,1.0542954283379116</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42395645,1.0987216635177997</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quai Richard Waddington,  Presqu'Île Rollet</t>
+          <t>Rue Léonard Bordes,  Quartier du Mont Gargan</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.4407633</v>
+        <v>49.4343074</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0466735</v>
+        <v>1.1157783</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4407633,1.0466735</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4343074,1.1157783</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rue Michel,  Les Coquets</t>
+          <t>Rue de Fontenelle,  Déville-lès-Rouen</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.45709401172554</v>
+        <v>49.47296713563828</v>
       </c>
       <c r="D10" t="n">
-        <v>1.091581960520784</v>
+        <v>1.060327903948913</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.457094011725545,1.0915819605207844</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47296713563828,1.0603279039489126</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quai de Rouen-Quevilly,  Presqu'Île Rollet</t>
+          <t>La table du Boucher,  3980</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.43784023857489</v>
+        <v>49.4747228</v>
       </c>
       <c r="D11" t="n">
-        <v>1.052916873215403</v>
+        <v>1.1256959</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.437840238574886,1.052916873215403</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4747228,1.1256959</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rue Ernest Lesueur,  Les Coquets</t>
+          <t>Rue Abbé de l'Épée,  Croix de Pierre</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>49.45884816717249</v>
+        <v>49.4428704</v>
       </c>
       <c r="D12" t="n">
-        <v>1.085739919873663</v>
+        <v>1.101857240774189</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45884816717249,1.0857399198736635</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.442870400000004,1.1018572407741893</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chemin de Rouen,  Le Mesnil-Esnard</t>
+          <t>Route de Mesnil-Esnard,  Côteaux du Trianon</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.41840144619702</v>
+        <v>49.42926201468572</v>
       </c>
       <c r="D13" t="n">
-        <v>1.144385058694083</v>
+        <v>1.152774326633283</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.418401446197024,1.1443850586940834</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42926201468572,1.1527743266332833</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rue François Lamy,  Mont-Riboudet</t>
+          <t>Rue Alfred Kastler,  Parc d'activités technologiques La Vatine</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49.4484727</v>
+        <v>49.47288926551011</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0746356</v>
+        <v>1.096211263258272</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4484727,1.0746356</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47288926551011,1.0962112632582721</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hippodrome des Trois Pipes,  Rue de Diane</t>
+          <t>Résidence Muchedent,  Darnétal</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49.45964395</v>
+        <v>49.4501356</v>
       </c>
       <c r="D15" t="n">
-        <v>1.118264972943661</v>
+        <v>1.1564396</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45964395,1.1182649729436607</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4501356,1.1564396</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rue de Verdun,  Les Vikings</t>
+          <t>Rue Henri Frère,  Parc de la Varenne</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>49.47553723731352</v>
+        <v>49.46044837309679</v>
       </c>
       <c r="D16" t="n">
-        <v>1.123740339433279</v>
+        <v>1.066894627953609</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.475537237313524,1.123740339433279</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46044837309679,1.0668946279536091</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chemin de la Bretèque,  La Bretèque</t>
+          <t>Rue du Cantony,  Centre Commercial de l'Aubette</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>49.4895594</v>
+        <v>49.43451528263126</v>
       </c>
       <c r="D17" t="n">
-        <v>1.1035399</v>
+        <v>1.155047846947832</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4895594,1.1035399</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43451528263126,1.1550478469478322</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6,  Rue des Canadiens</t>
+          <t>Pont Flaubert,  Quai de France</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49.420784</v>
+        <v>49.44133069999999</v>
       </c>
       <c r="D18" t="n">
-        <v>1.128584978738117</v>
+        <v>1.065146643849046</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.420784,1.1285849787381173</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.441330699999995,1.0651466438490456</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2,  Rue Legouy</t>
+          <t>Chemin de la Grand'Mare,  Vallon Suisse</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>49.4425295</v>
+        <v>49.45606676013594</v>
       </c>
       <c r="D19" t="n">
-        <v>1.108076</v>
+        <v>1.134587443855071</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4425295,1.108076</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45606676013594,1.134587443855071</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Avenue Bernard Bicheray,  Rouen</t>
+          <t>Boulevard Industriel,  Sotteville-lès-Rouen</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49.44945537954387</v>
+        <v>49.40399859811959</v>
       </c>
       <c r="D20" t="n">
-        <v>1.049347084850659</v>
+        <v>1.110365343518302</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44945537954387,1.0493470848506585</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.40399859811959,1.110365343518302</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rue Gessard,  Saint-Clément</t>
+          <t>Rue de l'Appel du 18 Juin 1940,  La Prévotière</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>49.42722088104083</v>
+        <v>49.46639417381033</v>
       </c>
       <c r="D21" t="n">
-        <v>1.071434974292933</v>
+        <v>1.12582431140331</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42722088104083,1.0714349742929332</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Rampe Beauvoisine,  Jouvenet</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>49.44801269803951</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.102314470687749</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44801269803951,1.102314470687749</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46639417381033,1.1258243114033095</t>
         </is>
       </c>
     </row>

--- a/addresses_found.xlsx
+++ b/addresses_found.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49.4285697</v>
+        <v>49.42827586484984</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1453215</v>
+        <v>1.14491284363202</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4285697,1.1453215</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42827586484984,1.1449128436320204</t>
         </is>
       </c>
     </row>
@@ -475,18 +475,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quartier du Mont Gargan,  Bonsecours</t>
+          <t>Rue Blaise Pascal,  Le Petit-Quevilly</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49.42307500911448</v>
+        <v>49.4161417</v>
       </c>
       <c r="D3" t="n">
-        <v>1.113333097556789</v>
+        <v>1.0642191</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.423075009114484,1.1133330975567892</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4161417,1.0642191</t>
         </is>
       </c>
     </row>
@@ -496,18 +496,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rue Madame de Staël,  Le Châtelet</t>
+          <t>Rue Armand Requier,  Bonsecours</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49.4594655</v>
+        <v>49.424451</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1360113</v>
+        <v>1.125648296874994</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4594655,1.1360113</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.424451000000005,1.1256482968749943</t>
         </is>
       </c>
     </row>
@@ -517,18 +517,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rue Bellevue,  Le Mont Fortin</t>
+          <t>D 138,  Côteaux du Trianon</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.45743925693177</v>
+        <v>49.42883203291946</v>
       </c>
       <c r="D5" t="n">
-        <v>1.09952913611965</v>
+        <v>1.1553599452941</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45743925693177,1.0995291361196504</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42883203291946,1.1553599452940997</t>
         </is>
       </c>
     </row>
@@ -538,18 +538,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quai Richard Waddington,  Presqu'Île Rollet</t>
+          <t>Rue Pierre Corneille,  Les Bocquets</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.44372233586422</v>
+        <v>49.47835282115562</v>
       </c>
       <c r="D6" t="n">
-        <v>1.05654883905663</v>
+        <v>1.108188057573049</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44372233586422,1.0565488390566298</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.478352821155624,1.1081880575730494</t>
         </is>
       </c>
     </row>
@@ -559,18 +559,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mosquée El-Fath,  Rue Le Verrier</t>
+          <t>Services techniques municipaux,  Rue Gustave Flaubert</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.45449635</v>
+        <v>49.4392294</v>
       </c>
       <c r="D7" t="n">
-        <v>1.141399220863771</v>
+        <v>1.144847793044596</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45449635,1.1413992208637707</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4392294,1.1448477930445962</t>
         </is>
       </c>
     </row>
@@ -580,18 +580,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Stade Irène Hermel,  Allée Jacques Willig</t>
+          <t>12,  Allée du Cheval Blanc</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49.42395645</v>
+        <v>49.46765065</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0987216635178</v>
+        <v>1.090882718790439</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42395645,1.0987216635177997</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.467650649999996,1.0908827187904389</t>
         </is>
       </c>
     </row>
@@ -601,18 +601,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rue Léonard Bordes,  Quartier du Mont Gargan</t>
+          <t>Canopée,  8</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.4343074</v>
+        <v>49.4429945</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1157783</v>
+        <v>1.0926853</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4343074,1.1157783</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4429945,1.0926853</t>
         </is>
       </c>
     </row>
@@ -622,18 +622,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rue de Fontenelle,  Déville-lès-Rouen</t>
+          <t>221,  Rue du Président Kennedy</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.47296713563828</v>
+        <v>49.431791</v>
       </c>
       <c r="D10" t="n">
-        <v>1.060327903948913</v>
+        <v>1.069295</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47296713563828,1.0603279039489126</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.431791,1.069295</t>
         </is>
       </c>
     </row>
@@ -643,18 +643,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>La table du Boucher,  3980</t>
+          <t>Chemin des Perets,  Le Mesnil-Esnard</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.4747228</v>
+        <v>49.41406351680388</v>
       </c>
       <c r="D11" t="n">
-        <v>1.1256959</v>
+        <v>1.128362524137488</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4747228,1.1256959</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.41406351680388,1.1283625241374882</t>
         </is>
       </c>
     </row>
@@ -664,18 +664,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rue Abbé de l'Épée,  Croix de Pierre</t>
+          <t>Route de Maromme,  Les Bulins</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>49.4428704</v>
+        <v>49.46899169138632</v>
       </c>
       <c r="D12" t="n">
-        <v>1.101857240774189</v>
+        <v>1.098704089173497</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.442870400000004,1.1018572407741893</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46899169138632,1.0987040891734972</t>
         </is>
       </c>
     </row>
@@ -685,18 +685,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Route de Mesnil-Esnard,  Côteaux du Trianon</t>
+          <t>Centre de secours principal Rouen Sud,  Rue du Petit-Quevilly</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.42926201468572</v>
+        <v>49.43123305</v>
       </c>
       <c r="D13" t="n">
-        <v>1.152774326633283</v>
+        <v>1.075669564558968</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42926201468572,1.1527743266332833</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43123305,1.0756695645589684</t>
         </is>
       </c>
     </row>
@@ -706,18 +706,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rue Alfred Kastler,  Parc d'activités technologiques La Vatine</t>
+          <t>Sotteville-lès-Rouen,  Rouen</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49.47288926551011</v>
+        <v>49.4120942</v>
       </c>
       <c r="D14" t="n">
-        <v>1.096211263258272</v>
+        <v>1.072697494666195</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47288926551011,1.0962112632582721</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4120942,1.0726974946661954</t>
         </is>
       </c>
     </row>
@@ -727,18 +727,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Résidence Muchedent,  Darnétal</t>
+          <t>Rue de la Paix,  Quartier du Mont Gargan</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49.4501356</v>
+        <v>49.4334981</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1564396</v>
+        <v>1.1286814</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4501356,1.1564396</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4334981,1.1286814</t>
         </is>
       </c>
     </row>
@@ -748,18 +748,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rue Henri Frère,  Parc de la Varenne</t>
+          <t>Rue de Crimée,  Mont-Saint-Aignan</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>49.46044837309679</v>
+        <v>49.45354700967638</v>
       </c>
       <c r="D16" t="n">
-        <v>1.066894627953609</v>
+        <v>1.089424738676594</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46044837309679,1.0668946279536091</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.453547009676385,1.0894247386765936</t>
         </is>
       </c>
     </row>
@@ -769,18 +769,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rue du Cantony,  Centre Commercial de l'Aubette</t>
+          <t>Golf de Rouen Mont-Saint-Aignan,  Rue Blanche de Castille</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>49.43451528263126</v>
+        <v>49.4780795</v>
       </c>
       <c r="D17" t="n">
-        <v>1.155047846947832</v>
+        <v>1.080583277487948</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43451528263126,1.1550478469478322</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4780795,1.0805832774879482</t>
         </is>
       </c>
     </row>
@@ -790,18 +790,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pont Flaubert,  Quai de France</t>
+          <t>72 a,  Avenue Jean Jaurès</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49.44133069999999</v>
+        <v>49.427677</v>
       </c>
       <c r="D18" t="n">
-        <v>1.065146643849046</v>
+        <v>1.066036</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.441330699999995,1.0651466438490456</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.427677,1.066036</t>
         </is>
       </c>
     </row>
@@ -811,18 +811,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chemin de la Grand'Mare,  Vallon Suisse</t>
+          <t>20,  Avenue du Long Corbeil</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>49.45606676013594</v>
+        <v>49.42461235</v>
       </c>
       <c r="D19" t="n">
-        <v>1.134587443855071</v>
+        <v>1.132398345234915</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45606676013594,1.134587443855071</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.424612350000004,1.1323983452349153</t>
         </is>
       </c>
     </row>
@@ -832,18 +832,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Boulevard Industriel,  Sotteville-lès-Rouen</t>
+          <t>Normandy Auction,  60</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49.40399859811959</v>
+        <v>49.4535083</v>
       </c>
       <c r="D20" t="n">
-        <v>1.110365343518302</v>
+        <v>1.0939221</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.40399859811959,1.110365343518302</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4535083,1.0939221</t>
         </is>
       </c>
     </row>
@@ -853,18 +853,1068 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rue de l'Appel du 18 Juin 1940,  La Prévotière</t>
+          <t>Passage de l'Église,  L'Église</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>49.46639417381033</v>
+        <v>49.46559769552942</v>
       </c>
       <c r="D21" t="n">
-        <v>1.12582431140331</v>
+        <v>1.107115987095324</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46639417381033,1.1258243114033095</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46559769552942,1.107115987095324</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>N 28,  Quartier du Mont Gargan</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>49.43690861301653</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.109625937132408</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.436908613016534,1.109625937132408</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Asten,  Chemin de Halage</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>49.4175296</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.109432546955719</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4175296,1.1094325469557194</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18,  Rue Léonard Bordes</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>49.417995</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.138790281578948</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.417995,1.138790281578948</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rampe Saint-Gervais,  Saint-Gervais</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>49.44952787970106</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.08398538875293</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44952787970106,1.0839853887529303</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>102,  Route de Darnétal</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>49.4409855</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.1241068</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4409855,1.1241068</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Prom'Sports,  24</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>49.4386542</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.1474369</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4386542,1.1474369</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lycée général et technologique Marcel Sembat,  Rue du Docteur Apvrille</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>49.41498365</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.086431239791325</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.414983649999996,1.086431239791325</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rue de Verdun,  Branly</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>49.44029113176204</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.131421823151835</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44029113176204,1.1314218231518351</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Boulevard de l'Ouest,  Presqu'Île Elie</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>49.44164292210922</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.04388615443843</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44164292210922,1.0438861544384301</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Avenue Olivier de Serres,  Saint-Jean Eudes</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>49.44952292918274</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.120513751418063</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44952292918274,1.1205137514180632</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rue Guillaume d'Estouteville,  Quartier Côteaux Ouest</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>49.45278684653838</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.066120526150451</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45278684653838,1.0661205261504512</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Rocade Nord-Est de Rouen,  Le Châtelet</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>49.459651</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.1433285</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.459651,1.1433285</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>30,  Boulevard du 11 Novembre</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>49.4205871</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.0681408</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4205871,1.0681408</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pont Flaubert,  Presqu'Île Rollet</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>49.4407573</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.066368335624206</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4407573,1.066368335624206</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Allée Jules Massenet,  Notre-Dame-de-Bondeville</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>49.47454362407932</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.060976164960823</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47454362407932,1.0609761649608231</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2,  Rue du Mail</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>49.4283058</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.0930897</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4283058,1.0930897</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Chemin de Halage,  Sotteville-lès-Rouen</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>49.4196646005535</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.109987509256086</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4196646005535,1.1099875092560865</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Rocade Nord de Rouen,  Les Portes de la Forêt</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>49.482318614528</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.115694860452761</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.482318614528,1.1156948604527606</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Rue de la République,  Bonsecours</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>49.42380446255697</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.114421204832414</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42380446255697,1.1144212048324145</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Rue Robert,  Mont-Saint-Aignan</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>49.45173504822498</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.080300179265848</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45173504822498,1.080300179265848</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Avenue du Président Georges Pompidou,  Domaine du Chapitre</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>49.46758717353938</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.141340060021515</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46758717353938,1.1413400600215147</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Rue Albert Camus,  Parc de l'Iton</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>49.46586165</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.068085095302935</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.46586165,1.0680850953029353</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>8,  Square Sainte-Catherine</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>49.4305425</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.118490586639162</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4305425,1.1184905866391621</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Allée Pierre de Coubertin,  Le Châtelet</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>49.4581847</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.149439130895527</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.458184700000004,1.149439130895527</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>18,  Boulevard de la Marne</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>49.4473021</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.0934726</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4473021,1.0934726</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Renault Stéphane Automobiles,  Route de Neufchâtel</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>49.4595355</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.1089006</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4595355,1.1089006</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rue Bellevue,  Le Mont Fortin</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>49.45877489999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.099334299430446</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.458774899999995,1.0993342994304462</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>École élémentaire Suzanne Savale,  127</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>49.44582939999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.147587531504644</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.445829399999994,1.1475875315046435</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>38A,  Rue Jouvenet</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>49.4487017</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.107304466423939</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4487017,1.1073044664239386</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Saint-Sever,  Centre Ville Rive Gauche</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>49.43704365316264</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.080959581768022</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43704365316264,1.0809595817680218</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>71,  Rue Jacquard</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>49.430284</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.05793</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.430284,1.05793</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Rue du Soleil Levant,  Les Rouges Terres</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>49.47706085</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.130888876513076</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.47706085,1.130888876513076</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Rue Léon Salva,  Sotteville-lès-Rouen</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>49.4091255</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.0774801</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4091255,1.0774801000000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lycée général Pierre Corneille,  4</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>49.44559855</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.100979254871922</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.44559855,1.100979254871922</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Rue Mortreuil,  Sotteville-lès-Rouen</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>49.42118627454855</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.108487320871207</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42118627454855,1.1084873208712074</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Rue du Maréchal de Lattre de Tassigny,  La Pléiade</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>49.47030835</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.06331568917464</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.470308349999996,1.0633156891746403</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mosquée El-Fath,  Rue Le Verrier</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>49.45449635</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.141399220863771</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45449635,1.1413992208637707</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>La Ferme du Clos Herbeux,  1877</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>49.4746345</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.1341902</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4746345,1.1341902</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ANIDER - unité autodialyse assistée Rouen Sud,  Allée Charles Darwin</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>49.4180555</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.0606282</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4180555,1.0606282</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Rue de Repainville,  Quartier du Mont Gargan</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>49.43511330382207</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.134032793046109</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43511330382207,1.1340327930461094</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Rue Saint-Antoine,  Bihorel</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>49.45442561558352</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.1194541780873</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45442561558352,1.1194541780873004</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Service de soins SNCF,  15</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>49.4130805</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.0992969</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4130805,1.0992969</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Impasse Marcel Couchaux,  Jouvenet</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>49.45488652795502</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.098705374863764</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.45488652795502,1.0987053748637643</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Passage Godalier,  Saint-Clément</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>49.42762862822252</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.073114681658467</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42762862822252,1.0731146816584667</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Rue du Bel Évent,  Le Bel-Évent</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>49.48189845819074</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.093856854496867</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.48189845819074,1.0938568544968674</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Rue Lethuillier-Pinel,  Saint-Clément</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>49.42450698706302</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.075580141346986</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.42450698706302,1.0755801413469859</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Boulevard de la Paix,  Carville</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>49.43787501694692</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.144503830044094</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.43787501694692,1.144503830044094</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>D 138,  Le Mesnil-Esnard</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>49.41817826925973</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.146915987859599</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.418178269259734,1.1469159878595991</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>9,  Rue Lamauve</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>49.44140185000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.106943171766285</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.441401850000005,1.1069431717662845</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sente des Planchettes,  Le Clos du Hamel</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>49.4714498</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.116195544313236</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=49.4714498,1.1161955443132356</t>
         </is>
       </c>
     </row>
